--- a/biology/Médecine/Échographie_au_premier_trimestre_de_la_grossesse/Échographie_au_premier_trimestre_de_la_grossesse.xlsx
+++ b/biology/Médecine/Échographie_au_premier_trimestre_de_la_grossesse/Échographie_au_premier_trimestre_de_la_grossesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échographie au premier trimestre de la grossesse est un temps primordial de la surveillance de la grossesse. Seule l'échographie permet de répondre aux quatre questions principales en début de grossesse : 
 la grossesse se développe-t-elle bien dans l'utérus (détection précoce des grossesses extra-utérines) ?
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>L'aspect échographique du tout début de grossesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le premier signe échographique d'une grossesse est la visualisation d'un sac ovulaire. Il est visible entre 4 semaines et 1 jour et 4 semaines et 3 jours; Il mesure alors 2 à 3 mm. L'utilisation de la voie endovaginale est souvent nécessaire pour le voir. Le sac ovulaire a l'aspect d'une petite tache noire, excentrée par rapport à la cavité utérine, correspondant à la cavité chorionique entourée d'une couronne d'échogénéicité forte : le trophoblaste.
 À cinq semaines, le sac ovulaire mesure 5 mm. Il est quasiment toujours visible lors de l'échographie par voie abdominale. Il est parfois difficile d'affirmer la localisation intra-utérine de la grossesse en raison de l'aspect de pseudo-sac gestationnel décrit au cours des grossesses extra-utérines. Seuls deux signes sont pathognomoniques de la grossesse intra-utérine
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,24 +566,203 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embryon à 5 semaines
-L'embryon est visible dès 5 semaines en cas d'utilisation de sonde endovaginale de haute fréquence. Il se présente comme une zone hyperéchogène coincée entre la vésicule vitelline et la paroi du sac ovulaire. Une activité cardiaque peut être visualisée. Il est déconseillé, à ce stade, d'utiliser le doppler pour entendre l'activité cardiaque embryonnaire en raison d'effet délétère possible sur la formation du cœur. En raison de la sensibilité humaine au mouvement, il est parfois possible de visualiser une activité cardiaque avant la visualisation de l'embryon. En pratique, l'activité cardiaque doit être systématiquement vue dès que l'embryon mesure 5 mm.
-Embryon à 6 semaines
-La croissance exponentielle de l'embryon permet très rapidement de le voir. Dès la visualisation de l'embryon une datation précise de la grossesse est possible. En cas de la visualisation de 2 sacs et / ou de 2 embryons, il est impératif de déterminer le type de grossesses gémellaires. Deux situations se rencontrent:
+          <t>Embryon à 5 semaines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'embryon est visible dès 5 semaines en cas d'utilisation de sonde endovaginale de haute fréquence. Il se présente comme une zone hyperéchogène coincée entre la vésicule vitelline et la paroi du sac ovulaire. Une activité cardiaque peut être visualisée. Il est déconseillé, à ce stade, d'utiliser le doppler pour entendre l'activité cardiaque embryonnaire en raison d'effet délétère possible sur la formation du cœur. En raison de la sensibilité humaine au mouvement, il est parfois possible de visualiser une activité cardiaque avant la visualisation de l'embryon. En pratique, l'activité cardiaque doit être systématiquement vue dès que l'embryon mesure 5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Embryon à 6 semaines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La croissance exponentielle de l'embryon permet très rapidement de le voir. Dès la visualisation de l'embryon une datation précise de la grossesse est possible. En cas de la visualisation de 2 sacs et / ou de 2 embryons, il est impératif de déterminer le type de grossesses gémellaires. Deux situations se rencontrent:
 Un sac contenant deux embryons : il s'agit d'une grossesse monochoriale donc issue d'un seul œuf (monozygote). Il faudra attendre quelques semaines pour préciser le caractère mono ou biamniotique de la grossesse
 Deux sacs contenant chacun un embryon, il s'agit d'une grossesse bichoriale en rapport  :
 soit avec la division d'un seul œuf  (monozygote) survenant moins de trois jours après la fécondation. Un tiers des grossesses bichoriales sont monozygotiques.
 soit la fécondation de deux ovules par deux spermatozoïdes (bizygote).
-La distinction entre faux et vrais jumeaux n'est pas toujours facile. Au cours de l'échographie, la constatation de deux fœtus de sexes différents est forcément en rapport avec une grossesse bizygote. En cas de fœtus de même sexe, il est impossible de trancher. Les différences physiques et biologiques à la naissance permettront de déterminer le caractère mono ou bizygotique de la grossesse.
-Embryon à 8 semaines
-L'embryon mesure entre 15 et 22 mm. La vésicule vitelline qui le nourrit est juste à côté. À la fin de cette semaine, les coudes deviennent visibles
-Fœtus à 9 semaines
-L'embryon s'appelle désormais fœtus. À cet âge, la fréquence cardiaque du fœtus atteint son maximum à 175 battements par minute.
-Fœtus à 10 semaines
-Les caractéristiques humaines du fœtus sont évidentes. Les membres sont visibles. Le pied prend une angulation normale par rapport à la jambe. L'ossification du crâne commence par l'os occipital. Les repères principaux du cerveau sont visibles. La hernie physiologique des intestins à travers la paroi abdominale est à son maximum. L'estomac devient visible.
-Fœtus à 11 semaines
-Le terme de 11 semaines est le terme minimum pour évaluer le risque d'aneuploïdie par mesure de la clarté nucale. À ce terme l'embryon mesure 45 mm et son aspect extérieur macroscopique est définitif. Théoriquement les malformations externes majeures sont toutes visibles. Notamment la fermeture de la paroi abdominale est terminée et le diagnostic de laparoschisis est possible à ce terme.
-L'évaluation du risque d'aneuploïdie par mesure de la clarté nucale doit énormément aux travaux de Kýpros Nicolaïdis et de son équipe[1]. Les critères nécessaires pour une mesure correcte de la clarté nucale sont :
+La distinction entre faux et vrais jumeaux n'est pas toujours facile. Au cours de l'échographie, la constatation de deux fœtus de sexes différents est forcément en rapport avec une grossesse bizygote. En cas de fœtus de même sexe, il est impossible de trancher. Les différences physiques et biologiques à la naissance permettront de déterminer le caractère mono ou bizygotique de la grossesse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Embryon à 8 semaines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'embryon mesure entre 15 et 22 mm. La vésicule vitelline qui le nourrit est juste à côté. À la fin de cette semaine, les coudes deviennent visibles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fœtus à 9 semaines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'embryon s'appelle désormais fœtus. À cet âge, la fréquence cardiaque du fœtus atteint son maximum à 175 battements par minute.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fœtus à 10 semaines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caractéristiques humaines du fœtus sont évidentes. Les membres sont visibles. Le pied prend une angulation normale par rapport à la jambe. L'ossification du crâne commence par l'os occipital. Les repères principaux du cerveau sont visibles. La hernie physiologique des intestins à travers la paroi abdominale est à son maximum. L'estomac devient visible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fœtus à 11 semaines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le terme de 11 semaines est le terme minimum pour évaluer le risque d'aneuploïdie par mesure de la clarté nucale. À ce terme l'embryon mesure 45 mm et son aspect extérieur macroscopique est définitif. Théoriquement les malformations externes majeures sont toutes visibles. Notamment la fermeture de la paroi abdominale est terminée et le diagnostic de laparoschisis est possible à ce terme.
+L'évaluation du risque d'aneuploïdie par mesure de la clarté nucale doit énormément aux travaux de Kýpros Nicolaïdis et de son équipe. Les critères nécessaires pour une mesure correcte de la clarté nucale sont :
 un embryon mesurant entre 45 et 84 mm de longueur crânio-caudale (mesure tête-fesse) ;
 l'embryon doit être visible sur toute sa longueur (longueur crânio-caudale) ;
 embryon en position neutre ;
@@ -579,91 +772,239 @@
 le cordon ombilical empêche la mesure de la clarté nucale dans environ 5 % des cas.
 La largeur de la clarté augmente au cours de la grossesse et est indépendante de l'âge maternel. L'évaluation du risque de trisomie 21 par la clarté nucale se base en comparant la médiane de la clarté nucale attendue par rapport à la clarté nucale mesurée. On utilise 
 soit la différence entre la clarté nucale mesurée et la clarté nucale attendue et un coefficient multiplicateur ou diviseur est appliqué au risque de base donné par l'âge maternel et le terme de la grossesse.
-soit le multiple de la médiane (MoM) qui est le rapport entre clarté nucale mesurée et la clarté nucale attendue. Ce rapport est appliqué au risque de base.
-Fœtus à 12 semaines
-Dans la plupart des cas, une échographie pratiquée à 12 semaines permet de détecter de nombreuses pathologies. Bien entendu, cette détection dépend de nombreux facteurs qui ne sont pas tous du ressort du médecin. Le surpoids et l'obésité sont actuellement les facteurs limitants les plus importants.
+soit le multiple de la médiane (MoM) qui est le rapport entre clarté nucale mesurée et la clarté nucale attendue. Ce rapport est appliqué au risque de base.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fœtus à 12 semaines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la plupart des cas, une échographie pratiquée à 12 semaines permet de détecter de nombreuses pathologies. Bien entendu, cette détection dépend de nombreux facteurs qui ne sont pas tous du ressort du médecin. Le surpoids et l'obésité sont actuellement les facteurs limitants les plus importants.
 Sur la figure 7 on distingue à gauche une zone intra-abdominale blanche correspondant à l'intestin du fœtus. Dans cette zone blanche, une petite tache noire qui est la vessie. Enfin, à droite des intestins, on peut distinguer le foie et les poumons.
 La face est explorable. Les deux orbites sont distinguables ainsi que les deux cristallins. Les membres se distinguent nettement. Le diagnostic d'anomalie des membres est possible à ce stade.
 Les malformations graves du cerveau sont détectables comme l'anencéphalie ou l'holoprosencéphalie. Les malformations cardiaques ne sont pas détectables en routine à ce terme.
-Détermination du sexe
-La détermination précoce du sexe est possible bien que médicalement sans intérêt. Les maladies génétiques liées à l'X bénéficient de technique plus précoce et d'une fiabilité supérieure pour permettre un diagnostic anténatal précoce.  En Inde, des femmes se font avorter pour ne pas avoir de filles en raison des conséquences économiques. Dans ce pays, une loi interdit de révéler le sexe des enfants à naître pour éviter les nombreux avortements de fœtus féminins.
-Selon une étude de juin 2006[2], la détermination du sexe est possible dans 85 % des cas entre 12 semaines et 12 semaines et 3 jours, dans 96 % des cas entre 12 semaines et 4 jours et 12 semaines et 6 jours et 97 % des cas entre 13 semaines et 13 semaines et 6 jours. Les embryons mâles sont vus entre 99 et 100 % à n'importe quel terme et les embryons femelles sont vus dans 91 % des cas entre 12 semaines et 12 semaines et 3 jours, dans 99 % des cas entre 12 semaines et 4 jours et 12 semaines et 6 jours et 100 % des cas entre 13 semaines et 13 semaines et 6 jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Évolution échographique de l'embryon normal</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fœtus à 12 semaines</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Détermination du sexe</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La détermination précoce du sexe est possible bien que médicalement sans intérêt. Les maladies génétiques liées à l'X bénéficient de technique plus précoce et d'une fiabilité supérieure pour permettre un diagnostic anténatal précoce.  En Inde, des femmes se font avorter pour ne pas avoir de filles en raison des conséquences économiques. Dans ce pays, une loi interdit de révéler le sexe des enfants à naître pour éviter les nombreux avortements de fœtus féminins.
+Selon une étude de juin 2006, la détermination du sexe est possible dans 85 % des cas entre 12 semaines et 12 semaines et 3 jours, dans 96 % des cas entre 12 semaines et 4 jours et 12 semaines et 6 jours et 97 % des cas entre 13 semaines et 13 semaines et 6 jours. Les embryons mâles sont vus entre 99 et 100 % à n'importe quel terme et les embryons femelles sont vus dans 91 % des cas entre 12 semaines et 12 semaines et 3 jours, dans 99 % des cas entre 12 semaines et 4 jours et 12 semaines et 6 jours et 100 % des cas entre 13 semaines et 13 semaines et 6 jours.
 La détermination précoce se fait sur l'orientation du tubercule génital de l'embryon sur une coupe sagittale stricte de l'embryon. Cette formation embryonnaire est l'origine commune des organes génitaux externes ou internes. 
 Cette détermination se fait en mesurant l'angle du tubercule génital par rapport à une ligne horizontale passant par le revêtement cutané de la région lombaire (le bas du dos). L'embryon est masculin si l'angle est supérieur à 30 degrés. L'embryon est féminin si l'angle est inférieur à 10 degrés. Entre les deux la détermination du sexe est impossible. De façon plus rapide : lorsque le tubercule génital est orienté vers l'arrière, il s'agit d'un embryon femelle. En cas d'orientation vers l'avant, il s'agit d'un embryon mâle.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Détermination de l'âge gestationnel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La détermination de l'âge gestationnel est une condition indispensable pour effectuer certains examens comme l'évaluation du risque de trisomie 21 par les marqueurs sériques. La prise en charge optimum de la menace d'accouchement prématurée, le diagnostic de retard de croissance intra-utérin ou de macrosomie fœtale, la surveillance des dépassements de terme nécessitent une datation sure.
-Le calcul de l'âge gestationnel repose essentiellement sur la longueur crânio-caudale de l'embryon[3].
+Le calcul de l'âge gestationnel repose essentiellement sur la longueur crânio-caudale de l'embryon.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Les aspects échographiques anormaux au premier trimestre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Absence de sac intra-utérin
-Si le test de grossesse urinaire et/ou sanguin est positif, il n'y a que trois diagnostics possibles:
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Absence de sac intra-utérin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Si le test de grossesse urinaire et/ou sanguin est positif, il n'y a que trois diagnostics possibles:
 La grossesse est évolutive mais moins avancée
 La grossesse est arrêtée
-Il s'agit d'une grossesse extra-utérine
-Visualisation d'un sac ovulaire sans vésicule vitelline ou embryon
-Dans ce cas, seuls les trois mêmes diagnostics suivants sont possibles :
+Il s'agit d'une grossesse extra-utérine</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les aspects échographiques anormaux au premier trimestre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Visualisation d'un sac ovulaire sans vésicule vitelline ou embryon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dans ce cas, seuls les trois mêmes diagnostics suivants sont possibles :
 La grossesse est évolutive mais moins avancée
 La grossesse est arrêtée
-Il s'agit d'un pseudo-sac gestationnel (œuf clair) avec une grossesse extra-utérine
-Visualisation d'un embryon sans activité cardiaque
-Dans ce cas, il n'y a qu'un seul diagnostic possible : la grossesse est arrêtée. Parfois il est difficile de cerner une activité cardiaque dans le cas d'une grossesse encore très précoce. Un contrôle de vitalité de l'embryon est souvent préconisé à une échéance ultérieure.
+Il s'agit d'un pseudo-sac gestationnel (œuf clair) avec une grossesse extra-utérine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Échographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chographie_au_premier_trimestre_de_la_grossesse</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les aspects échographiques anormaux au premier trimestre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Visualisation d'un embryon sans activité cardiaque</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce cas, il n'y a qu'un seul diagnostic possible : la grossesse est arrêtée. Parfois il est difficile de cerner une activité cardiaque dans le cas d'une grossesse encore très précoce. Un contrôle de vitalité de l'embryon est souvent préconisé à une échéance ultérieure.
 </t>
         </is>
       </c>
